--- a/row_data.xlsx
+++ b/row_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CF21-exercises\CFLMS-Natalia-CodeReview-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A6F6D60-DA64-4258-8C21-AE23C37992B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872001B-BB1E-4CB5-A800-118805AC6409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>event_name</t>
   </si>
@@ -55,16 +55,153 @@
   </si>
   <si>
     <t>event_type</t>
+  </si>
+  <si>
+    <t>Photography can stop time for a moment</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1616512329844-1a33d02db6cd?ixid=MnwxMjA3fDB8MHxzZWFyY2h8MzZ8fGV4aGliaXRpb258ZW58MHwwfDB8fA%3D%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=600&amp;q=60</t>
+  </si>
+  <si>
+    <t>Photography exhibition of the best images.</t>
+  </si>
+  <si>
+    <t>photo@mail.com</t>
+  </si>
+  <si>
+    <t>Art Gallery, Deutz, Colonne, Germany</t>
+  </si>
+  <si>
+    <t>www.photo-now.de</t>
+  </si>
+  <si>
+    <t>exhibition</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1518998053901-5348d3961a04?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=667&amp;q=80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibition of paintings in black and white. </t>
+  </si>
+  <si>
+    <t>exhibition@mail.com</t>
+  </si>
+  <si>
+    <t>San Francisco - Modern Art Gallery, San Fransisco, USA</t>
+  </si>
+  <si>
+    <t>www.black&amp;white.us</t>
+  </si>
+  <si>
+    <t>World. Black &amp; white</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1545987796-b199d6abb1b4?ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=750&amp;q=80</t>
+  </si>
+  <si>
+    <t>Connecting the dots project</t>
+  </si>
+  <si>
+    <t>We are proud to present the results of the work of our students.</t>
+  </si>
+  <si>
+    <t>dots@mail.com</t>
+  </si>
+  <si>
+    <t>Kunsthalle Wien, Vienna, Austria</t>
+  </si>
+  <si>
+    <t>www.dots-connected.at</t>
+  </si>
+  <si>
+    <t>cinema</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1536440136628-849c177e76a1?ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=625&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1566504182406-416ab1e86d5e?ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=749&amp;q=80</t>
+  </si>
+  <si>
+    <t>Festival of Arabic Movies.</t>
+  </si>
+  <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1522775417749-29284fb89f43?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=667&amp;q=80</t>
+  </si>
+  <si>
+    <t>American Dream?</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1497911174120-042e550e7e0a?ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=738&amp;q=80</t>
+  </si>
+  <si>
+    <t>Las Vegas, USA</t>
+  </si>
+  <si>
+    <t>Festival of Lights. US tour.</t>
+  </si>
+  <si>
+    <t>Viennale.</t>
+  </si>
+  <si>
+    <t>The Viennale takes place this year from October 21st to November 2nd. With us you can get the tickets first!</t>
+  </si>
+  <si>
+    <t>eventim-viennale@mail.com</t>
+  </si>
+  <si>
+    <t>Eventim, Eventim Straße 1, 1010 Vienna, Austria</t>
+  </si>
+  <si>
+    <t>www.eventim.at</t>
+  </si>
+  <si>
+    <t>The best movies from the Arabic culture and international standouts will be shown at this movie festival.</t>
+  </si>
+  <si>
+    <t>arabic-movies@mail.com</t>
+  </si>
+  <si>
+    <t>Kairo Street 1, Kairo, Egypt</t>
+  </si>
+  <si>
+    <t>www.arabic-movies-cairo.com</t>
+  </si>
+  <si>
+    <t>Be part of the biggest festival on Earth.</t>
+  </si>
+  <si>
+    <t>americandream@mail.com</t>
+  </si>
+  <si>
+    <t>The highly acclaimed an belowed Festival Of Lights goes on a tour through the US! We start in Las Vegas.</t>
+  </si>
+  <si>
+    <t>festivaloflights-us@mail.com</t>
+  </si>
+  <si>
+    <t>www.festival-of-light.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +224,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,7 +593,225 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1234567</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>86756890</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>36217897341</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>123456</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44942</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>4729184719</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44712</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>5634264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{07D7DB05-55EE-456A-BB56-90CD9914043B}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{8D4AD9CC-D963-4180-9548-13D0ACB040B4}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{4B2D1E62-C913-4D0E-9829-C462939BF910}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{833004DB-1301-43C8-AD5C-4EEE5A0B29FC}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{740819DF-86FB-4ADF-A47E-7E73E3C144C3}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{36A2D66C-5974-4D56-B253-C658EA4CFF42}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{2AB9E409-0B0C-49B7-871C-AE95EA81C6D8}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{AC1407D7-4035-40FA-BB22-BE8927115898}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{46A90CE1-F959-4058-A1C1-CC1D3FA2E75A}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{0D67144E-7A67-4E3F-8686-1959866169AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>